--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_250__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_250__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5423,7 +5423,7 @@
                   <c:v>95.45237731933594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.9285888671875</c:v>
+                  <c:v>96.92860412597656</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55.56102752685547</c:v>
@@ -5432,7 +5432,7 @@
                   <c:v>30.31447792053223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.38523101806641</c:v>
+                  <c:v>48.38523483276367</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.91867065429688</c:v>
@@ -5447,7 +5447,7 @@
                   <c:v>97.503173828125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.64617538452148</c:v>
+                  <c:v>48.64617156982422</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.20588684082031</c:v>
@@ -5459,7 +5459,7 @@
                   <c:v>79.18923950195312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.69723510742188</c:v>
+                  <c:v>40.69723129272461</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>73.02828979492188</c:v>
@@ -5468,7 +5468,7 @@
                   <c:v>72.85806274414062</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.49459362030029</c:v>
+                  <c:v>11.49459075927734</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.20137023925781</c:v>
@@ -5477,13 +5477,13 @@
                   <c:v>77.39004516601562</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56.47890090942383</c:v>
+                  <c:v>56.47889709472656</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64.55360412597656</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.04277801513672</c:v>
+                  <c:v>56.04277420043945</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>89.74253845214844</c:v>
@@ -5495,13 +5495,13 @@
                   <c:v>95.64454650878906</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90.36485290527344</c:v>
+                  <c:v>90.36483764648438</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.07557678222656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.99806976318359</c:v>
+                  <c:v>67.99807739257812</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>97.72216796875</c:v>
@@ -5582,13 +5582,13 @@
                   <c:v>55.06662750244141</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>94.71109008789062</c:v>
+                  <c:v>94.71110534667969</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>78.623291015625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52.17787933349609</c:v>
+                  <c:v>52.17787551879883</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.8289794921875</c:v>
@@ -5606,7 +5606,7 @@
                   <c:v>96.54011535644531</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.38761901855469</c:v>
+                  <c:v>97.38760375976562</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>86.63372802734375</c:v>
@@ -5624,7 +5624,7 @@
                   <c:v>63.13612365722656</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.14175415039062</c:v>
+                  <c:v>82.14173889160156</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>67.26254272460938</c:v>
@@ -5645,16 +5645,16 @@
                   <c:v>67.227783203125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>86.38584899902344</c:v>
+                  <c:v>86.3858642578125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>60.72223663330078</c:v>
+                  <c:v>60.72223281860352</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>82.87889099121094</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>61.56620407104492</c:v>
+                  <c:v>61.56620788574219</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>52.7203254699707</c:v>
@@ -5681,7 +5681,7 @@
                   <c:v>83.07843017578125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>82.30819702148438</c:v>
+                  <c:v>82.30818176269531</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>64.01043701171875</c:v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>96.9285888671875</v>
+        <v>96.92860412597656</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>48.38523101806641</v>
+        <v>48.38523483276367</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>48.64617538452148</v>
+        <v>48.64617156982422</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>40.69723510742188</v>
+        <v>40.69723129272461</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>11.49459362030029</v>
+        <v>11.49459075927734</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>56.47890090942383</v>
+        <v>56.47889709472656</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>56.04277801513672</v>
+        <v>56.04277420043945</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>90.36485290527344</v>
+        <v>90.36483764648438</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>67.99806976318359</v>
+        <v>67.99807739257812</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>94.71109008789062</v>
+        <v>94.71110534667969</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>52.17787933349609</v>
+        <v>52.17787551879883</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.38761901855469</v>
+        <v>97.38760375976562</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.14175415039062</v>
+        <v>82.14173889160156</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F78">
-        <v>86.38584899902344</v>
+        <v>86.3858642578125</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>60.72223663330078</v>
+        <v>60.72223281860352</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>61.56620407104492</v>
+        <v>61.56620788574219</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>81.3472</v>
       </c>
       <c r="F90">
-        <v>82.30819702148438</v>
+        <v>82.30818176269531</v>
       </c>
     </row>
     <row r="91" spans="1:6">
